--- a/curation/draft/collections_specialization_draft.xlsx
+++ b/curation/draft/collections_specialization_draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3411B454-6B96-44B7-82EC-A487900E7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84069719-1C71-47CA-9BCB-1BB1DF4D9BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_VS" sheetId="16" r:id="rId1"/>
@@ -826,10 +826,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CAAE8E-5C13-4AF4-981F-FF7495593B56}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1:AL1048576"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/curation/draft/collections_specialization_draft.xlsx
+++ b/curation/draft/collections_specialization_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84069719-1C71-47CA-9BCB-1BB1DF4D9BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A640B-4815-4B0E-9B78-B949020E99DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
@@ -317,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +347,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -486,6 +494,10 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -497,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -824,19 +836,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CAAE8E-5C13-4AF4-981F-FF7495593B56}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="14" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
@@ -862,7 +874,7 @@
     <col min="33" max="33" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="23.25" customHeight="1">
+    <row r="1" spans="1:38" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,7 +887,7 @@
       <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -896,10 +908,10 @@
       <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="12" t="s">
         <v>83</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -935,13 +947,13 @@
       <c r="X1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="18" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="5" t="s">
@@ -963,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="33.950000000000003" customHeight="1">
+    <row r="2" spans="1:38" ht="33.950000000000003" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>76</v>
       </c>
@@ -1022,9 +1034,9 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="10" t="s">
@@ -1036,7 +1048,7 @@
       <c r="AF2" s="10"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="11" customFormat="1" ht="30">
+    <row r="3" spans="1:38" s="11" customFormat="1" ht="30">
       <c r="A3" s="9" t="s">
         <v>76</v>
       </c>
@@ -1110,8 +1122,13 @@
       </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:33" ht="30">
+    <row r="4" spans="1:38" ht="30">
       <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
@@ -1170,7 +1187,7 @@
       <c r="W4" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="15" t="s">
         <v>62</v>
       </c>
       <c r="Y4" t="s">
@@ -1190,7 +1207,7 @@
       </c>
       <c r="AF4" s="10"/>
     </row>
-    <row r="5" spans="1:33" ht="30">
+    <row r="5" spans="1:38" ht="30">
       <c r="A5" s="9" t="s">
         <v>76</v>
       </c>
@@ -1229,7 +1246,7 @@
       <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="16" t="s">
         <v>68</v>
       </c>
       <c r="Q5">
@@ -1249,13 +1266,13 @@
       <c r="W5" t="s">
         <v>60</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AA5" t="s">
@@ -1269,7 +1286,7 @@
       </c>
       <c r="AF5" s="10"/>
     </row>
-    <row r="6" spans="1:33" ht="30">
+    <row r="6" spans="1:38" ht="30">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -1333,7 +1350,7 @@
       </c>
       <c r="AF6" s="10"/>
     </row>
-    <row r="7" spans="1:33" ht="30">
+    <row r="7" spans="1:38" ht="30">
       <c r="A7" s="9" t="s">
         <v>76</v>
       </c>
@@ -1399,7 +1416,7 @@
       </c>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="30">
+    <row r="8" spans="1:38" ht="30">
       <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
@@ -1458,7 +1475,7 @@
       <c r="W8" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="X8" s="15" t="s">
         <v>62</v>
       </c>
       <c r="Y8" t="s">
@@ -1478,7 +1495,7 @@
       </c>
       <c r="AF8" s="10"/>
     </row>
-    <row r="9" spans="1:33" ht="30">
+    <row r="9" spans="1:38" ht="30">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -1537,13 +1554,13 @@
       <c r="W9" t="s">
         <v>60</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="15" t="s">
+      <c r="Z9" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AA9" t="s">
@@ -1557,22 +1574,22 @@
       </c>
       <c r="AF9" s="10"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:38">
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:38">
       <c r="A11" s="9"/>
       <c r="I11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:38">
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
